--- a/BackTest/2019-10-28 BackTest PLY.xlsx
+++ b/BackTest/2019-10-28 BackTest PLY.xlsx
@@ -486,20 +486,14 @@
         <v>3.990000000000006</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.99</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -527,20 +521,14 @@
         <v>4.000000000000006</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -568,20 +556,14 @@
         <v>4.006666666666673</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -609,20 +591,14 @@
         <v>4.010000000000006</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -650,20 +626,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -691,20 +661,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -732,20 +696,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -773,20 +731,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -814,20 +766,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -855,20 +801,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -896,20 +836,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -937,20 +871,14 @@
         <v>4.006666666666675</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -978,20 +906,14 @@
         <v>4.010000000000008</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.98</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1019,20 +941,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1060,20 +976,14 @@
         <v>4.006666666666675</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>4</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1101,20 +1011,14 @@
         <v>3.996666666666675</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.99</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1142,20 +1046,14 @@
         <v>4.003333333333342</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1183,20 +1081,14 @@
         <v>4.00000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.99</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1224,20 +1116,14 @@
         <v>4.00000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.99</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1265,20 +1151,14 @@
         <v>3.99000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.99</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1306,20 +1186,14 @@
         <v>3.99000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.99</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1347,20 +1221,14 @@
         <v>3.993333333333343</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.99</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1388,20 +1256,14 @@
         <v>4.006666666666677</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,14 +1297,12 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>4.03</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1470,18 +1330,18 @@
         <v>4.020000000000009</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>4.03</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1511,18 +1371,18 @@
         <v>4.016666666666675</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>4.03</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1552,20 +1412,14 @@
         <v>4.013333333333342</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1593,20 +1447,14 @@
         <v>4.016666666666675</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1634,20 +1482,14 @@
         <v>4.013333333333342</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1675,20 +1517,14 @@
         <v>4.013333333333342</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1716,20 +1552,14 @@
         <v>4.010000000000009</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1757,20 +1587,14 @@
         <v>4.01000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1798,20 +1622,14 @@
         <v>4.01000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1839,20 +1657,14 @@
         <v>4.016666666666675</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1880,20 +1692,14 @@
         <v>4.016666666666675</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1928,11 +1734,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1967,11 +1769,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1999,20 +1797,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2040,20 +1832,14 @@
         <v>4.010000000000008</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2081,20 +1867,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2122,20 +1902,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2163,20 +1937,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2204,20 +1972,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2245,20 +2007,14 @@
         <v>4.010000000000008</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2286,20 +2042,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2327,20 +2077,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2368,20 +2112,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2409,20 +2147,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2450,20 +2182,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2491,20 +2217,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2532,20 +2252,14 @@
         <v>4.01333333333334</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2573,20 +2287,14 @@
         <v>4.016666666666673</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2621,11 +2329,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2653,20 +2357,14 @@
         <v>4.013333333333339</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2694,20 +2392,14 @@
         <v>4.01333333333334</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2742,11 +2434,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2774,20 +2462,14 @@
         <v>4.020000000000006</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2822,11 +2504,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2861,11 +2539,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2900,11 +2574,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2939,11 +2609,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2978,11 +2644,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3017,11 +2679,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3056,11 +2714,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3095,11 +2749,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3134,11 +2784,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3173,11 +2819,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3212,11 +2854,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3251,11 +2889,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3290,11 +2924,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3329,11 +2959,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3368,11 +2994,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3407,11 +3029,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3446,11 +3064,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3099,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3524,11 +3134,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3563,11 +3169,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3204,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3239,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3680,11 +3274,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3719,11 +3309,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3758,11 +3344,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3790,20 +3372,14 @@
         <v>4.013333333333342</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3838,11 +3414,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3877,11 +3449,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3909,20 +3477,14 @@
         <v>4.01000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3950,20 +3512,14 @@
         <v>4.01000000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3991,20 +3547,14 @@
         <v>4.01000000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4032,20 +3582,14 @@
         <v>4.013333333333342</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4073,20 +3617,14 @@
         <v>4.016666666666675</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4121,11 +3659,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4160,11 +3694,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4199,11 +3729,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4231,20 +3757,14 @@
         <v>4.000000000000008</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>4</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4272,20 +3792,14 @@
         <v>4.00333333333334</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>4</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4313,20 +3827,14 @@
         <v>4.00333333333334</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4354,20 +3862,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4395,20 +3897,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>4</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4436,20 +3932,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4477,20 +3967,14 @@
         <v>4.003333333333342</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>4</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4518,20 +4002,14 @@
         <v>4.006666666666675</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4559,20 +4037,14 @@
         <v>4.006666666666674</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4600,20 +4072,14 @@
         <v>4.010000000000008</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4641,20 +4107,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4682,20 +4142,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4723,20 +4177,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4764,20 +4212,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4805,20 +4247,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4846,20 +4282,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4887,20 +4317,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4928,20 +4352,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4969,20 +4387,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5010,20 +4422,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5051,20 +4457,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5092,20 +4492,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5133,20 +4527,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5174,20 +4562,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5215,20 +4597,14 @@
         <v>4.010000000000007</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5256,20 +4632,14 @@
         <v>4.01333333333334</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5297,20 +4667,14 @@
         <v>4.01333333333334</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5338,20 +4702,14 @@
         <v>4.01333333333334</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5379,20 +4737,14 @@
         <v>4.013333333333339</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5420,20 +4772,14 @@
         <v>4.01333333333334</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5461,20 +4807,14 @@
         <v>4.01333333333334</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5502,20 +4842,14 @@
         <v>4.013333333333339</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5543,20 +4877,14 @@
         <v>4.01333333333334</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5584,20 +4912,14 @@
         <v>4.01333333333334</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5625,20 +4947,14 @@
         <v>4.013333333333339</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5666,20 +4982,14 @@
         <v>4.016666666666672</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>4.01</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5714,11 +5024,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5753,11 +5059,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5792,11 +5094,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5831,11 +5129,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5870,11 +5164,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5909,11 +5199,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5948,11 +5234,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5987,11 +5269,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6026,11 +5304,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6065,11 +5339,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6104,11 +5374,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +5409,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6182,11 +5444,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6221,11 +5479,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6260,11 +5514,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6299,11 +5549,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6338,11 +5584,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6377,11 +5619,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6416,11 +5654,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6455,11 +5689,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6494,11 +5724,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6533,11 +5759,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +5794,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6611,11 +5829,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6650,11 +5864,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6689,11 +5899,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6728,11 +5934,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6767,11 +5969,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6806,11 +6004,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6845,11 +6039,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6884,11 +6074,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6923,11 +6109,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6962,11 +6144,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7001,11 +6179,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7040,11 +6214,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7079,11 +6249,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7118,11 +6284,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7157,11 +6319,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7196,11 +6354,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7235,11 +6389,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7274,11 +6424,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7313,11 +6459,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7352,11 +6494,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7391,11 +6529,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7430,11 +6564,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7469,11 +6599,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7508,11 +6634,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7547,11 +6669,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7586,11 +6704,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7625,11 +6739,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7664,11 +6774,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7703,11 +6809,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7742,11 +6844,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7781,11 +6879,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7820,11 +6914,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7859,11 +6949,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7898,11 +6984,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7937,11 +7019,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7976,11 +7054,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8015,11 +7089,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8054,11 +7124,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8093,11 +7159,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8132,11 +7194,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8171,11 +7229,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8210,11 +7264,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8249,11 +7299,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8288,11 +7334,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8327,11 +7369,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8366,11 +7404,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8405,11 +7439,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8444,11 +7474,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8483,11 +7509,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8522,11 +7544,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8561,11 +7579,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8600,11 +7614,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8639,11 +7649,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8678,11 +7684,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8717,11 +7719,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8756,11 +7754,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8795,11 +7789,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8834,11 +7824,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8873,11 +7859,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8912,11 +7894,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8951,11 +7929,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8990,11 +7964,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9029,11 +7999,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9068,11 +8034,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9107,11 +8069,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9146,11 +8104,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9185,11 +8139,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9224,11 +8174,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9263,11 +8209,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9302,11 +8244,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9341,11 +8279,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9380,11 +8314,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9419,11 +8349,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9458,11 +8384,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9497,11 +8419,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9536,11 +8454,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9575,11 +8489,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +8524,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9653,11 +8559,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9692,11 +8594,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9731,11 +8629,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9770,11 +8664,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9809,11 +8699,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9848,11 +8734,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9887,11 +8769,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9926,11 +8804,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9965,11 +8839,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10004,11 +8874,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10043,11 +8909,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10082,11 +8944,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10121,11 +8979,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10160,11 +9014,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10199,11 +9049,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10238,11 +9084,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10277,11 +9119,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10316,11 +9154,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10351,16 +9185,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10388,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
@@ -10423,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
@@ -10528,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -10563,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -19768,7 +18600,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
@@ -19803,7 +18635,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
@@ -20713,7 +19545,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
@@ -20748,7 +19580,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
@@ -20783,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
@@ -20818,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
@@ -20853,7 +19685,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest PLY.xlsx
+++ b/BackTest/2019-10-28 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-617337.6524000003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-617337.6524000003</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
@@ -521,7 +521,7 @@
         <v>-617337.6524000003</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -562,7 +562,7 @@
         <v>-617337.6524000003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -603,7 +603,7 @@
         <v>-617337.6524000003</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
@@ -644,7 +644,7 @@
         <v>-158076.0569000003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -685,7 +685,7 @@
         <v>-496113.4645000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>4.01</v>
@@ -726,7 +726,7 @@
         <v>-496113.4645000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -767,7 +767,7 @@
         <v>-496113.4645000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -808,7 +808,7 @@
         <v>-496113.4645000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
@@ -849,7 +849,7 @@
         <v>-744048.0535000003</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
@@ -890,7 +890,7 @@
         <v>-544534.8306000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3.99</v>
@@ -931,7 +931,7 @@
         <v>77119.24629999977</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>4.01</v>
@@ -972,7 +972,7 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>4.02</v>
@@ -1013,7 +1013,7 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>4.01</v>
@@ -1054,7 +1054,7 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>4.01</v>
@@ -1095,7 +1095,7 @@
         <v>-424157.3668000003</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>4.01</v>
@@ -1136,7 +1136,7 @@
         <v>-424157.3668000003</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
@@ -1177,7 +1177,7 @@
         <v>-50019.73620000028</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
@@ -1218,7 +1218,7 @@
         <v>-50019.73620000028</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>4.01</v>
@@ -1259,7 +1259,7 @@
         <v>-22816.73620000028</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>4.01</v>
@@ -1300,7 +1300,7 @@
         <v>-89112.23460000027</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>4.02</v>
@@ -1341,7 +1341,7 @@
         <v>-89102.23460000027</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
@@ -1382,9 +1382,11 @@
         <v>-89102.23460000027</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J25" t="n">
         <v>4</v>
       </c>
@@ -1421,9 +1423,11 @@
         <v>197942.6509999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
@@ -1460,9 +1464,11 @@
         <v>197942.6509999997</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J27" t="n">
         <v>4</v>
       </c>
@@ -1499,9 +1505,11 @@
         <v>-412541.0562851112</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
@@ -1538,9 +1546,11 @@
         <v>-412541.0562851112</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J29" t="n">
         <v>4</v>
       </c>
@@ -1577,9 +1587,11 @@
         <v>-320515.3444851112</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J30" t="n">
         <v>4</v>
       </c>
@@ -1616,9 +1628,11 @@
         <v>-320515.3444851112</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J31" t="n">
         <v>4</v>
       </c>
@@ -1811,9 +1825,11 @@
         <v>-320515.3444851112</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J36" t="n">
         <v>4</v>
       </c>
@@ -1889,9 +1905,11 @@
         <v>-320515.3444851112</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J38" t="n">
         <v>4</v>
       </c>
@@ -2357,9 +2375,11 @@
         <v>-861419.2927851113</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J50" t="n">
         <v>4</v>
       </c>
@@ -2669,9 +2689,11 @@
         <v>-1816331.403685112</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
       <c r="J58" t="n">
         <v>4</v>
       </c>
@@ -2708,9 +2730,11 @@
         <v>-1816331.403685112</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
       <c r="J59" t="n">
         <v>4</v>
       </c>
@@ -2747,9 +2771,11 @@
         <v>-1832377.573785112</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
       <c r="J60" t="n">
         <v>4</v>
       </c>
@@ -2786,9 +2812,11 @@
         <v>-1507233.427585111</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.98</v>
+      </c>
       <c r="J61" t="n">
         <v>4</v>
       </c>
@@ -2825,7 +2853,7 @@
         <v>-1456279.454485111</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>3.99</v>
@@ -2866,9 +2894,11 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
       <c r="J63" t="n">
         <v>4</v>
       </c>
@@ -2905,9 +2935,11 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J64" t="n">
         <v>4</v>
       </c>
@@ -2944,9 +2976,11 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J65" t="n">
         <v>4</v>
       </c>
@@ -2983,9 +3017,11 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J66" t="n">
         <v>4</v>
       </c>
@@ -3022,9 +3058,11 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J67" t="n">
         <v>4</v>
       </c>
@@ -3061,9 +3099,11 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J68" t="n">
         <v>4</v>
       </c>
@@ -3100,7 +3140,7 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>4.01</v>
@@ -3141,9 +3181,11 @@
         <v>-1440956.535585111</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J70" t="n">
         <v>4</v>
       </c>
@@ -3180,7 +3222,7 @@
         <v>-884887.6981851115</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>4</v>
@@ -3221,9 +3263,11 @@
         <v>-884887.6981851115</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J72" t="n">
         <v>4</v>
       </c>
@@ -3260,9 +3304,11 @@
         <v>-1520193.323085112</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J73" t="n">
         <v>4</v>
       </c>
@@ -3299,9 +3345,11 @@
         <v>-1520173.323085112</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4</v>
+      </c>
       <c r="J74" t="n">
         <v>4</v>
       </c>
@@ -3338,9 +3386,11 @@
         <v>-1521056.342685112</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J75" t="n">
         <v>4</v>
       </c>
@@ -3377,9 +3427,11 @@
         <v>-1521056.342685112</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
       <c r="J76" t="n">
         <v>4</v>
       </c>
@@ -3416,9 +3468,11 @@
         <v>-1530233.708985112</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4</v>
+      </c>
       <c r="J77" t="n">
         <v>4</v>
       </c>
@@ -3455,9 +3509,11 @@
         <v>-1530223.708985112</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J78" t="n">
         <v>4</v>
       </c>
@@ -3494,9 +3550,11 @@
         <v>-1766835.400785112</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J79" t="n">
         <v>4</v>
       </c>
@@ -3533,9 +3591,11 @@
         <v>-1766835.400785112</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J80" t="n">
         <v>4</v>
       </c>
@@ -3572,9 +3632,11 @@
         <v>-1766835.400785112</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J81" t="n">
         <v>4</v>
       </c>
@@ -3611,9 +3673,11 @@
         <v>-1766835.400785112</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J82" t="n">
         <v>4</v>
       </c>
@@ -3650,9 +3714,11 @@
         <v>-1415256.251185112</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J83" t="n">
         <v>4</v>
       </c>
@@ -3689,9 +3755,11 @@
         <v>-1415236.251185112</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>4</v>
+      </c>
       <c r="J84" t="n">
         <v>4</v>
       </c>
@@ -3728,9 +3796,11 @@
         <v>-1877230.834785112</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.03</v>
+      </c>
       <c r="J85" t="n">
         <v>4</v>
       </c>
@@ -3767,9 +3837,11 @@
         <v>-2253179.834785112</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J86" t="n">
         <v>4</v>
       </c>
@@ -3806,9 +3878,11 @@
         <v>-2253169.834785112</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J87" t="n">
         <v>4</v>
       </c>
@@ -3845,9 +3919,11 @@
         <v>-2287210.317285112</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J88" t="n">
         <v>4</v>
       </c>
@@ -3884,9 +3960,11 @@
         <v>-2094144.246785112</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J89" t="n">
         <v>4</v>
       </c>
@@ -3923,9 +4001,11 @@
         <v>-2407783.197885112</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J90" t="n">
         <v>4</v>
       </c>
@@ -3962,9 +4042,11 @@
         <v>-2407783.197885112</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J91" t="n">
         <v>4</v>
       </c>
@@ -4001,9 +4083,11 @@
         <v>-2407783.197885112</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J92" t="n">
         <v>4</v>
       </c>
@@ -4040,9 +4124,11 @@
         <v>-2407783.197885112</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J93" t="n">
         <v>4</v>
       </c>
@@ -4079,9 +4165,11 @@
         <v>-2407783.197885112</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J94" t="n">
         <v>4</v>
       </c>
@@ -4118,9 +4206,11 @@
         <v>-2407763.197885112</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J95" t="n">
         <v>4</v>
       </c>
@@ -4391,9 +4481,11 @@
         <v>-3018034.912285112</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J102" t="n">
         <v>4</v>
       </c>
@@ -4430,9 +4522,11 @@
         <v>-2741514.961785112</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4</v>
+      </c>
       <c r="J103" t="n">
         <v>4</v>
       </c>
@@ -4469,9 +4563,11 @@
         <v>-2741514.961785112</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J104" t="n">
         <v>4</v>
       </c>
@@ -5600,9 +5696,11 @@
         <v>-3466692.662185112</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J133" t="n">
         <v>4</v>
       </c>
@@ -5678,9 +5776,11 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J135" t="n">
         <v>4</v>
       </c>
@@ -5756,9 +5856,11 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J137" t="n">
         <v>4</v>
       </c>
@@ -5834,9 +5936,11 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J139" t="n">
         <v>4</v>
       </c>
@@ -5873,9 +5977,11 @@
         <v>-3567635.415685113</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J140" t="n">
         <v>4</v>
       </c>
@@ -5912,9 +6018,11 @@
         <v>-3650835.218085113</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J141" t="n">
         <v>4</v>
       </c>
@@ -5951,9 +6059,11 @@
         <v>-3650835.218085113</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J142" t="n">
         <v>4</v>
       </c>
@@ -5990,9 +6100,11 @@
         <v>-3439941.547785113</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J143" t="n">
         <v>4</v>
       </c>
@@ -6146,9 +6258,11 @@
         <v>-3485744.691085113</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J147" t="n">
         <v>4</v>
       </c>
@@ -6302,9 +6416,11 @@
         <v>-3332172.827985113</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J151" t="n">
         <v>4</v>
       </c>
@@ -6419,9 +6535,11 @@
         <v>-3535178.895685113</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J154" t="n">
         <v>4</v>
       </c>
@@ -6458,9 +6576,11 @@
         <v>-3700313.959685112</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J155" t="n">
         <v>4</v>
       </c>
@@ -6497,9 +6617,11 @@
         <v>-3700313.959685112</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4</v>
+      </c>
       <c r="J156" t="n">
         <v>4</v>
       </c>
@@ -6536,9 +6658,11 @@
         <v>-3700303.959685112</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4</v>
+      </c>
       <c r="J157" t="n">
         <v>4</v>
       </c>
@@ -6575,9 +6699,11 @@
         <v>-3700303.959685112</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J158" t="n">
         <v>4</v>
       </c>
@@ -6614,9 +6740,11 @@
         <v>-3701554.959685112</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J159" t="n">
         <v>4</v>
       </c>
@@ -6653,9 +6781,11 @@
         <v>-3701544.959685112</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>4</v>
+      </c>
       <c r="J160" t="n">
         <v>4</v>
       </c>
@@ -6692,9 +6822,11 @@
         <v>-3890320.430885112</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J161" t="n">
         <v>4</v>
       </c>
@@ -6731,9 +6863,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>4</v>
+      </c>
       <c r="J162" t="n">
         <v>4</v>
       </c>
@@ -6770,9 +6904,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J163" t="n">
         <v>4</v>
       </c>
@@ -6809,9 +6945,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J164" t="n">
         <v>4</v>
       </c>
@@ -6848,9 +6986,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J165" t="n">
         <v>4</v>
       </c>
@@ -6887,9 +7027,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J166" t="n">
         <v>4</v>
       </c>
@@ -6926,9 +7068,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J167" t="n">
         <v>4</v>
       </c>
@@ -6965,9 +7109,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J168" t="n">
         <v>4</v>
       </c>
@@ -7004,9 +7150,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J169" t="n">
         <v>4</v>
       </c>
@@ -7043,9 +7191,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J170" t="n">
         <v>4</v>
       </c>
@@ -7082,9 +7232,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J171" t="n">
         <v>4</v>
       </c>
@@ -7160,9 +7312,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J173" t="n">
         <v>4</v>
       </c>
@@ -7199,9 +7353,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J174" t="n">
         <v>4</v>
       </c>
@@ -7316,9 +7472,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J177" t="n">
         <v>4</v>
       </c>
@@ -7355,9 +7513,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J178" t="n">
         <v>4</v>
       </c>
@@ -7433,9 +7593,11 @@
         <v>-3704706.010785112</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J180" t="n">
         <v>4</v>
       </c>
@@ -8057,9 +8219,11 @@
         <v>-3887796.560685112</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J196" t="n">
         <v>4</v>
       </c>
@@ -8096,9 +8260,11 @@
         <v>-2957427.931485112</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J197" t="n">
         <v>4</v>
       </c>
@@ -8135,9 +8301,11 @@
         <v>-2680661.915685112</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J198" t="n">
         <v>4</v>
       </c>
@@ -8447,11 +8615,9 @@
         <v>-2875261.082185112</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
         <v>4</v>
       </c>
@@ -8488,11 +8654,9 @@
         <v>-2885261.082185112</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
         <v>4</v>
       </c>
@@ -8529,11 +8693,9 @@
         <v>-2987872.715785112</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>4.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
         <v>4</v>
       </c>
@@ -8570,11 +8732,9 @@
         <v>-2934862.715785112</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>4.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
         <v>4</v>
       </c>
@@ -8611,11 +8771,9 @@
         <v>-2934362.715785112</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>4.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
         <v>4</v>
       </c>
@@ -8652,11 +8810,9 @@
         <v>-2934362.715785112</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
         <v>4</v>
       </c>
@@ -8693,11 +8849,9 @@
         <v>-2934362.715785112</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
         <v>4</v>
       </c>
@@ -8812,9 +8966,11 @@
         <v>-2914372.715785112</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>4.03</v>
+      </c>
       <c r="J215" t="n">
         <v>4</v>
       </c>
@@ -8929,9 +9085,11 @@
         <v>-3119053.252585112</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>4.03</v>
+      </c>
       <c r="J218" t="n">
         <v>4</v>
       </c>
@@ -8968,9 +9126,11 @@
         <v>-3119053.252585112</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>4.03</v>
+      </c>
       <c r="J219" t="n">
         <v>4</v>
       </c>
@@ -9046,9 +9206,11 @@
         <v>-3119053.252585112</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>4.03</v>
+      </c>
       <c r="J221" t="n">
         <v>4</v>
       </c>
@@ -11698,7 +11860,7 @@
         <v>16944546.39169138</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
@@ -11776,7 +11938,7 @@
         <v>17114257.03479138</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
@@ -11854,7 +12016,7 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
@@ -11932,7 +12094,7 @@
         <v>17119771.05149138</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
@@ -12010,7 +12172,7 @@
         <v>17110080.50949138</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
@@ -12049,7 +12211,7 @@
         <v>16982691.56409138</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
@@ -12088,7 +12250,7 @@
         <v>17023686.06229138</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
@@ -12166,7 +12328,7 @@
         <v>16753068.88079138</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
@@ -12244,7 +12406,7 @@
         <v>16884026.03899138</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
@@ -12322,7 +12484,7 @@
         <v>16884036.03899138</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
@@ -12400,7 +12562,7 @@
         <v>16965524.50119138</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
@@ -12439,7 +12601,7 @@
         <v>16782732.27349138</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
@@ -12478,7 +12640,7 @@
         <v>16796352.59809138</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
@@ -12517,7 +12679,7 @@
         <v>16790043.03149138</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
@@ -12556,7 +12718,7 @@
         <v>16790043.03149138</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
@@ -12673,7 +12835,7 @@
         <v>16949949.38889138</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
@@ -12681,11 +12843,11 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L314" t="n">
-        <v>1.0225</v>
+        <v>1</v>
       </c>
       <c r="M314" t="inlineStr"/>
     </row>
@@ -12712,11 +12874,17 @@
         <v>16475941.98559138</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>4</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12745,11 +12913,17 @@
         <v>16475931.98559138</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>4</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12778,11 +12952,17 @@
         <v>16475921.98559138</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>4</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12814,8 +12994,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>4</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12847,8 +13033,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>4</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12877,11 +13069,17 @@
         <v>16637767.12139138</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>4</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12913,8 +13111,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>4</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12943,11 +13147,17 @@
         <v>16637767.12139138</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>4</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12979,8 +13189,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>4</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13009,11 +13225,17 @@
         <v>16774713.73379138</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>4</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13045,8 +13267,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>4</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13078,8 +13306,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>4</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13111,8 +13345,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>4</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13144,8 +13384,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>4</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13177,8 +13423,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>4</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13207,11 +13459,17 @@
         <v>16839223.74039138</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>4</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13243,8 +13501,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>4</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13276,8 +13540,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>4</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13309,8 +13579,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>4</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13342,8 +13618,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>4</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13372,11 +13654,17 @@
         <v>16812399.65219139</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>4</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13408,8 +13696,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>4</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13441,8 +13735,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>4</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13474,8 +13774,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>4</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13507,8 +13813,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>4</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13540,8 +13852,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>4</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13573,8 +13891,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>4</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13606,8 +13930,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>4</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13639,8 +13969,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>4</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13672,8 +14008,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>4</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13705,8 +14047,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>4</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13738,8 +14086,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>4</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13771,8 +14125,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>4</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13804,8 +14164,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>4</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13837,8 +14203,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>4</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13870,8 +14242,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>4</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13903,8 +14281,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>4</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13936,8 +14320,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>4</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13969,8 +14359,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>4</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14002,8 +14398,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>4</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14035,8 +14437,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>4</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14068,8 +14476,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>4</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14101,8 +14515,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>4</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14134,8 +14554,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>4</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14167,8 +14593,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>4</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14200,8 +14632,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>4</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14233,8 +14671,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>4</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14266,8 +14710,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>4</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14299,8 +14749,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>4</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14332,8 +14788,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>4</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14365,8 +14827,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>4</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14398,8 +14866,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>4</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14431,8 +14905,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>4</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14464,8 +14944,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>4</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14497,8 +14983,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>4</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14527,11 +15019,17 @@
         <v>16789264.93559139</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>4</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14563,8 +15061,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>4</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14596,8 +15100,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>4</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14629,8 +15139,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>4</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14662,8 +15178,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>4</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14695,8 +15217,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>4</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14728,8 +15256,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>4</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14761,8 +15295,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>4</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14791,11 +15331,17 @@
         <v>17087763.90329139</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>4</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14824,11 +15370,17 @@
         <v>17087763.90329139</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>4</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14860,8 +15412,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>4</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14893,8 +15451,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>4</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14926,8 +15490,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>4</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14959,8 +15529,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>4</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14992,8 +15568,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>4</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15025,8 +15607,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>4</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15058,8 +15646,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>4</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15088,11 +15682,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>4</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15124,8 +15724,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>4</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15157,8 +15763,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>4</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15187,11 +15799,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>4</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15220,11 +15838,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>4</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15256,8 +15880,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>4</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15286,11 +15916,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>4</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15319,11 +15955,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>4</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15352,11 +15994,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>4</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15388,8 +16036,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>4</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15421,8 +16075,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>4</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15454,8 +16114,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>4</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15487,8 +16153,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>4</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15520,8 +16192,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>4</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15550,11 +16228,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>4</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15583,11 +16267,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>4</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15616,11 +16306,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>4</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15652,8 +16348,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>4</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15685,8 +16387,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>4</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15715,11 +16423,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>4</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15748,11 +16462,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>4</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15784,8 +16504,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>4</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15817,8 +16543,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>4</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15847,11 +16579,17 @@
         <v>17168757.14049139</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>4</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15883,8 +16621,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>4</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15916,8 +16660,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>4</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15949,8 +16699,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>4</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15982,8 +16738,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>4</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16015,8 +16777,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>4</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16048,8 +16816,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>4</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16081,8 +16855,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>4</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16114,8 +16894,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>4</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16147,8 +16933,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>4</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16180,8 +16972,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>4</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16213,8 +17011,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>4</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16246,8 +17050,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>4</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16279,8 +17089,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>4</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16312,8 +17128,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>4</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16345,8 +17167,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>4</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16378,8 +17206,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>4</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16411,8 +17245,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>4</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16444,8 +17284,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>4</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16477,8 +17323,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>4</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16510,8 +17362,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>4</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16543,8 +17401,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>4</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16576,8 +17440,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>4</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16609,8 +17479,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>4</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16642,8 +17518,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>4</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16675,8 +17557,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>4</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16708,8 +17596,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>4</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16741,8 +17635,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>4</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16774,8 +17674,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>4</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16807,8 +17713,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>4</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16840,8 +17752,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>4</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16873,8 +17791,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>4</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16906,8 +17830,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>4</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16939,8 +17869,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>4</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16972,8 +17908,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>4</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17005,8 +17947,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>4</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17038,8 +17986,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>4</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17071,8 +18025,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>4</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17104,8 +18064,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>4</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17137,8 +18103,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>4</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17170,8 +18142,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>4</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17203,8 +18181,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>4</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17236,8 +18220,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>4</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17269,8 +18259,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>4</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17302,8 +18298,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>4</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17335,8 +18337,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>4</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17368,8 +18376,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>4</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17401,8 +18415,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>4</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17434,8 +18454,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>4</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17467,8 +18493,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>4</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17500,8 +18532,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>4</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17533,8 +18571,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>4</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17566,8 +18610,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>4</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17599,8 +18649,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>4</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17632,8 +18688,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>4</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17665,8 +18727,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>4</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17698,8 +18766,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>4</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17731,8 +18805,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>4</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17764,8 +18844,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>4</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17797,8 +18883,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>4</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17830,8 +18922,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>4</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17863,8 +18961,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>4</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17896,8 +19000,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>4</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17929,8 +19039,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>4</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17962,8 +19078,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>4</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17995,8 +19117,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>4</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18028,8 +19156,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>4</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18061,8 +19195,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>4</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18094,8 +19234,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>4</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18127,8 +19273,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>4</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18160,8 +19312,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>4</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18193,8 +19351,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>4</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18226,8 +19390,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>4</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18259,8 +19429,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>4</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18292,8 +19468,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>4</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18325,8 +19507,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>4</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18358,8 +19546,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>4</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18391,8 +19585,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>4</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18424,8 +19624,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>4</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18457,8 +19663,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>4</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18490,8 +19702,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>4</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18523,8 +19741,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>4</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18556,8 +19780,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>4</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18589,8 +19819,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>4</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18622,8 +19858,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>4</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18655,8 +19897,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>4</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18688,8 +19936,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>4</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18721,8 +19975,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>4</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18754,8 +20014,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>4</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18787,8 +20053,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>4</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18820,8 +20092,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>4</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18853,8 +20131,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>4</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18886,8 +20170,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>4</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18919,8 +20209,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>4</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18952,8 +20248,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>4</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18985,8 +20287,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>4</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19018,8 +20326,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>4</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19051,8 +20365,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>4</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19084,8 +20404,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>4</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19117,8 +20443,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>4</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19147,11 +20479,17 @@
         <v>15349792.08859139</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>4</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19180,11 +20518,17 @@
         <v>15349792.08859139</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>4</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19213,11 +20557,17 @@
         <v>15397274.28269139</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>4</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19246,11 +20596,17 @@
         <v>15082437.47279139</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>4</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19279,11 +20635,17 @@
         <v>15082437.47279139</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>4</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19312,11 +20674,17 @@
         <v>15082437.47279139</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>4</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19348,8 +20716,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>4</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19381,8 +20755,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>4</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19411,11 +20791,17 @@
         <v>15082437.47279139</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>4</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19444,11 +20830,17 @@
         <v>15082437.47279139</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>4</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19477,11 +20869,17 @@
         <v>15106796.18809139</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>4</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19510,11 +20908,17 @@
         <v>14667224.97839139</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>4</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19543,11 +20947,17 @@
         <v>14667224.97839139</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>4</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19576,11 +20986,17 @@
         <v>14667224.97839139</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>4</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19609,11 +21025,17 @@
         <v>14667224.97839139</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>4</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19642,11 +21064,17 @@
         <v>14317671.15529139</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>4</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19675,11 +21103,17 @@
         <v>14675681.46889139</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>4</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19708,11 +21142,17 @@
         <v>14675681.46889139</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>4</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19741,11 +21181,17 @@
         <v>14675681.46889139</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>4</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19774,11 +21220,17 @@
         <v>14675681.46889139</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>4</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19807,11 +21259,17 @@
         <v>14675681.46889139</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>4</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19840,11 +21298,17 @@
         <v>14675681.46889139</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>4</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19873,11 +21337,17 @@
         <v>14675681.46889139</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>4</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19909,8 +21379,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>4</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19942,8 +21418,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>4</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19975,8 +21457,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>4</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20008,8 +21496,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>4</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20041,8 +21535,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>4</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20071,11 +21571,17 @@
         <v>14675681.46889139</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>4</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20104,11 +21610,17 @@
         <v>14657063.05739139</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>4</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20137,11 +21649,17 @@
         <v>14820796.82069139</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>4</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20170,11 +21688,17 @@
         <v>14820796.82069139</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>4</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20203,11 +21727,17 @@
         <v>14894923.65019139</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>4</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20236,11 +21766,17 @@
         <v>14894913.65019139</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>4</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20269,11 +21805,17 @@
         <v>14895551.71049139</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>4</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20302,11 +21844,17 @@
         <v>14895551.71049139</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>4</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20335,11 +21883,17 @@
         <v>14655075.63909139</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>4</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20368,11 +21922,17 @@
         <v>15019078.38239139</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>4</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20401,11 +21961,17 @@
         <v>15019078.38239139</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>4</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20437,8 +22003,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>4</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20467,11 +22039,17 @@
         <v>15019078.38239139</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>4</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20500,11 +22078,17 @@
         <v>15019078.38239139</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>4</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20533,11 +22117,17 @@
         <v>15019078.38239139</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>4</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20569,8 +22159,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>4</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20602,8 +22198,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>4</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20635,8 +22237,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>4</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20668,8 +22276,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>4</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20701,8 +22315,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>4</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20734,8 +22354,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>4</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20767,8 +22393,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>4</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20800,8 +22432,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>4</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20833,8 +22471,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>4</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20863,11 +22507,17 @@
         <v>14517932.45519139</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>4</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20899,8 +22549,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>4</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20932,8 +22588,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>4</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20965,8 +22627,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>4</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20998,8 +22666,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>4</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21031,8 +22705,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>4</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21064,8 +22744,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>4</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21097,8 +22783,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>4</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21130,8 +22822,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>4</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21163,8 +22861,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>4</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21196,8 +22900,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>4</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21229,8 +22939,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>4</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21262,8 +22978,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>4</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21295,8 +23017,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>4</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21328,8 +23056,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>4</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21361,8 +23095,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>4</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21394,8 +23134,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>4</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21427,8 +23173,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>4</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21460,8 +23212,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>4</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21493,8 +23251,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>4</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21526,8 +23290,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>4</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21559,8 +23329,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>4</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21592,8 +23368,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>4</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21625,8 +23407,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>4</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21658,8 +23446,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>4</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21691,8 +23485,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>4</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21724,8 +23524,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>4</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21757,8 +23563,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>4</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21790,8 +23602,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>4</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21823,8 +23641,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>4</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21856,8 +23680,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>4</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21889,8 +23719,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>4</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21922,8 +23758,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>4</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21955,8 +23797,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>4</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21988,8 +23836,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>4</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22021,8 +23875,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>4</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22054,8 +23914,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>4</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22087,8 +23953,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>4</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22120,8 +23992,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>4</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22153,8 +24031,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>4</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22186,8 +24070,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>4</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22219,8 +24109,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>4</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22249,11 +24145,17 @@
         <v>17535631.75409139</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>4</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22282,11 +24184,17 @@
         <v>17535631.75409139</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>4</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22315,11 +24223,17 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>4</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22348,11 +24262,17 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>4</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22381,11 +24301,17 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>4</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22414,11 +24340,17 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>4</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22447,11 +24379,17 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>4</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22483,8 +24421,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>4</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22516,8 +24460,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>4</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22549,8 +24499,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>4</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22582,8 +24538,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>4</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22615,8 +24577,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>4</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22648,8 +24616,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>4</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22681,8 +24655,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>4</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22711,13 +24691,19 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>4</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L618" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="M618" t="inlineStr"/>
     </row>
@@ -22744,7 +24730,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22777,7 +24763,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22810,7 +24796,7 @@
         <v>17237769.69749139</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22843,7 +24829,7 @@
         <v>17237769.69749139</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22876,7 +24862,7 @@
         <v>17219705.08793718</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22909,7 +24895,7 @@
         <v>17219705.08793718</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22942,7 +24928,7 @@
         <v>17494398.14503718</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22975,7 +24961,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23008,7 +24994,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23041,7 +25027,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23074,7 +25060,7 @@
         <v>17270231.83163718</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23107,7 +25093,7 @@
         <v>17101336.51273718</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23140,7 +25126,7 @@
         <v>17101336.51273718</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23173,7 +25159,7 @@
         <v>17260176.76413718</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23206,7 +25192,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23239,7 +25225,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23272,7 +25258,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23305,7 +25291,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23338,7 +25324,7 @@
         <v>16847088.21033718</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23371,7 +25357,7 @@
         <v>16753496.17793718</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23404,7 +25390,7 @@
         <v>15465636.67013718</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23437,7 +25423,7 @@
         <v>15465646.67013718</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23470,7 +25456,7 @@
         <v>15465646.67013718</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23503,7 +25489,7 @@
         <v>15465646.67013718</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23536,7 +25522,7 @@
         <v>15197801.02123718</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23569,7 +25555,7 @@
         <v>15246689.41163718</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23602,7 +25588,7 @@
         <v>15050529.54003718</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23635,7 +25621,7 @@
         <v>15050529.54003718</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23668,7 +25654,7 @@
         <v>14815198.85413717</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23701,7 +25687,7 @@
         <v>14815208.85413717</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23734,7 +25720,7 @@
         <v>14623730.23993718</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23767,7 +25753,7 @@
         <v>14895016.05563718</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23866,7 +25852,7 @@
         <v>14105491.19733717</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -27397,7 +29383,7 @@
         <v>12868323.64108377</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27430,7 +29416,7 @@
         <v>12916672.16256638</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27463,7 +29449,7 @@
         <v>12916672.16256638</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27496,7 +29482,7 @@
         <v>12916672.16256638</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27661,7 +29647,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27694,7 +29680,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27727,7 +29713,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27760,7 +29746,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28090,7 +30076,7 @@
         <v>12601955.93649289</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28321,7 +30307,7 @@
         <v>11801173.58259289</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28387,7 +30373,7 @@
         <v>11576936.93209289</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28453,7 +30439,7 @@
         <v>11576936.93209289</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28464,6 +30450,6 @@
       <c r="M792" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest PLY.xlsx
+++ b/BackTest/2019-10-28 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -685,11 +685,9 @@
         <v>-496113.4645000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>4</v>
       </c>
@@ -726,11 +724,9 @@
         <v>-496113.4645000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>4</v>
       </c>
@@ -931,11 +927,9 @@
         <v>77119.24629999977</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>4</v>
       </c>
@@ -972,11 +966,9 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>4</v>
       </c>
@@ -1013,11 +1005,9 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>4</v>
       </c>
@@ -1054,11 +1044,9 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>4</v>
       </c>
@@ -1095,11 +1083,9 @@
         <v>-424157.3668000003</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>4</v>
       </c>
@@ -1136,11 +1122,9 @@
         <v>-424157.3668000003</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>4</v>
       </c>
@@ -1177,11 +1161,9 @@
         <v>-50019.73620000028</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>4</v>
       </c>
@@ -1218,11 +1200,9 @@
         <v>-50019.73620000028</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>4</v>
       </c>
@@ -1259,11 +1239,9 @@
         <v>-22816.73620000028</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>4</v>
       </c>
@@ -1300,11 +1278,9 @@
         <v>-89112.23460000027</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>4</v>
       </c>
@@ -1341,11 +1317,9 @@
         <v>-89102.23460000027</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>4</v>
       </c>
@@ -1382,11 +1356,9 @@
         <v>-89102.23460000027</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>4</v>
       </c>
@@ -1423,11 +1395,9 @@
         <v>197942.6509999997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>4</v>
       </c>
@@ -1464,11 +1434,9 @@
         <v>197942.6509999997</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>4</v>
       </c>
@@ -1505,11 +1473,9 @@
         <v>-412541.0562851112</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>4</v>
       </c>
@@ -1546,11 +1512,9 @@
         <v>-412541.0562851112</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>4</v>
       </c>
@@ -1587,11 +1551,9 @@
         <v>-320515.3444851112</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>4</v>
       </c>
@@ -1628,11 +1590,9 @@
         <v>-320515.3444851112</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>4</v>
       </c>
@@ -1825,11 +1785,9 @@
         <v>-320515.3444851112</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>4</v>
       </c>
@@ -1905,11 +1863,9 @@
         <v>-320515.3444851112</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>4</v>
       </c>
@@ -2375,11 +2331,9 @@
         <v>-861419.2927851113</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>4</v>
       </c>
@@ -2689,11 +2643,9 @@
         <v>-1816331.403685112</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>4</v>
       </c>
@@ -2730,11 +2682,9 @@
         <v>-1816331.403685112</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>4</v>
       </c>
@@ -2771,11 +2721,9 @@
         <v>-1832377.573785112</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>4</v>
       </c>
@@ -2812,11 +2760,9 @@
         <v>-1507233.427585111</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>4</v>
       </c>
@@ -3017,11 +2963,9 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>4</v>
       </c>
@@ -3058,11 +3002,9 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>4</v>
       </c>
@@ -3099,11 +3041,9 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>4</v>
       </c>
@@ -3140,11 +3080,9 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>4</v>
       </c>
@@ -3181,11 +3119,9 @@
         <v>-1440956.535585111</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>4</v>
       </c>
@@ -3304,11 +3240,9 @@
         <v>-1520193.323085112</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>4</v>
       </c>
@@ -3550,11 +3484,9 @@
         <v>-1766835.400785112</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>4</v>
       </c>
@@ -3591,11 +3523,9 @@
         <v>-1766835.400785112</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>4</v>
       </c>
@@ -3796,11 +3726,9 @@
         <v>-1877230.834785112</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>4.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>4</v>
       </c>
@@ -3837,11 +3765,9 @@
         <v>-2253179.834785112</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>4</v>
       </c>
@@ -3878,11 +3804,9 @@
         <v>-2253169.834785112</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>4</v>
       </c>
@@ -3919,11 +3843,9 @@
         <v>-2287210.317285112</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>4</v>
       </c>
@@ -3960,11 +3882,9 @@
         <v>-2094144.246785112</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>4</v>
       </c>
@@ -4001,11 +3921,9 @@
         <v>-2407783.197885112</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>4</v>
       </c>
@@ -4042,11 +3960,9 @@
         <v>-2407783.197885112</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>4</v>
       </c>
@@ -4083,11 +3999,9 @@
         <v>-2407783.197885112</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>4</v>
       </c>
@@ -4124,11 +4038,9 @@
         <v>-2407783.197885112</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>4</v>
       </c>
@@ -4165,11 +4077,9 @@
         <v>-2407783.197885112</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>4</v>
       </c>
@@ -4206,11 +4116,9 @@
         <v>-2407763.197885112</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>4</v>
       </c>
@@ -4481,11 +4389,9 @@
         <v>-3018034.912285112</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>4</v>
       </c>
@@ -4522,11 +4428,9 @@
         <v>-2741514.961785112</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>4</v>
       </c>
@@ -4563,11 +4467,9 @@
         <v>-2741514.961785112</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>4</v>
       </c>
@@ -5696,11 +5598,9 @@
         <v>-3466692.662185112</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>4</v>
       </c>
@@ -5776,11 +5676,9 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
         <v>4</v>
       </c>
@@ -5897,9 +5795,11 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J138" t="n">
         <v>4</v>
       </c>
@@ -5936,11 +5836,9 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
         <v>4</v>
       </c>
@@ -5977,11 +5875,9 @@
         <v>-3567635.415685113</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>4</v>
       </c>
@@ -6018,11 +5914,9 @@
         <v>-3650835.218085113</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>4</v>
       </c>
@@ -6141,9 +6035,11 @@
         <v>-3485744.691085113</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J144" t="n">
         <v>4</v>
       </c>
@@ -6180,9 +6076,11 @@
         <v>-3485744.691085113</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J145" t="n">
         <v>4</v>
       </c>
@@ -6219,9 +6117,11 @@
         <v>-3485744.691085113</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J146" t="n">
         <v>4</v>
       </c>
@@ -6299,9 +6199,11 @@
         <v>-3485744.691085113</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J148" t="n">
         <v>4</v>
       </c>
@@ -6338,9 +6240,11 @@
         <v>-3485744.691085113</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J149" t="n">
         <v>4</v>
       </c>
@@ -6377,9 +6281,11 @@
         <v>-3332172.827985113</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J150" t="n">
         <v>4</v>
       </c>
@@ -6416,11 +6322,9 @@
         <v>-3332172.827985113</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>4</v>
       </c>
@@ -6496,9 +6400,11 @@
         <v>-3535188.895685113</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J153" t="n">
         <v>4</v>
       </c>
@@ -6576,11 +6482,9 @@
         <v>-3700313.959685112</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>4</v>
       </c>
@@ -6740,11 +6644,9 @@
         <v>-3701554.959685112</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
         <v>4</v>
       </c>
@@ -7273,9 +7175,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J172" t="n">
         <v>4</v>
       </c>
@@ -7394,9 +7298,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J175" t="n">
         <v>4</v>
       </c>
@@ -7433,9 +7339,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J176" t="n">
         <v>4</v>
       </c>
@@ -7554,9 +7462,11 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J179" t="n">
         <v>4</v>
       </c>
@@ -7634,9 +7544,11 @@
         <v>-3857396.322885112</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J181" t="n">
         <v>4</v>
       </c>
@@ -7673,9 +7585,11 @@
         <v>-3857396.322885112</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J182" t="n">
         <v>4</v>
       </c>
@@ -7712,9 +7626,11 @@
         <v>-3722055.430685112</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J183" t="n">
         <v>4</v>
       </c>
@@ -7751,9 +7667,11 @@
         <v>-3859340.327885112</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J184" t="n">
         <v>4</v>
       </c>
@@ -7790,9 +7708,11 @@
         <v>-3859340.327885112</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J185" t="n">
         <v>4</v>
       </c>
@@ -7829,9 +7749,11 @@
         <v>-3796145.283685112</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J186" t="n">
         <v>4</v>
       </c>
@@ -7868,9 +7790,11 @@
         <v>-3951444.455385112</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J187" t="n">
         <v>4</v>
       </c>
@@ -7907,9 +7831,11 @@
         <v>-3951444.455385112</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J188" t="n">
         <v>4</v>
       </c>
@@ -7946,9 +7872,11 @@
         <v>-3757464.490185112</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J189" t="n">
         <v>4</v>
       </c>
@@ -7985,9 +7913,11 @@
         <v>-3757464.490185112</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J190" t="n">
         <v>4</v>
       </c>
@@ -8024,9 +7954,11 @@
         <v>-3757464.490185112</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J191" t="n">
         <v>4</v>
       </c>
@@ -8063,9 +7995,11 @@
         <v>-3797308.645285112</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J192" t="n">
         <v>4</v>
       </c>
@@ -8102,9 +8036,11 @@
         <v>-3797298.645285112</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J193" t="n">
         <v>4</v>
       </c>
@@ -8141,9 +8077,11 @@
         <v>-3797298.645285112</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J194" t="n">
         <v>4</v>
       </c>
@@ -8180,9 +8118,11 @@
         <v>-3887796.560685112</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J195" t="n">
         <v>4</v>
       </c>
@@ -8966,11 +8906,9 @@
         <v>-2914372.715785112</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>4.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
         <v>4</v>
       </c>
@@ -9085,11 +9023,9 @@
         <v>-3119053.252585112</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>4.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
         <v>4</v>
       </c>
@@ -9126,11 +9062,9 @@
         <v>-3119053.252585112</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>4.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
         <v>4</v>
       </c>
@@ -9206,11 +9140,9 @@
         <v>-3119053.252585112</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>4.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
         <v>4</v>
       </c>
@@ -9364,7 +9296,7 @@
         <v>15187485.91091489</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
@@ -9372,11 +9304,11 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L225" t="n">
-        <v>1</v>
+        <v>1.0075</v>
       </c>
       <c r="M225" t="inlineStr"/>
     </row>
@@ -9403,17 +9335,11 @@
         <v>55737505.91091489</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>4</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9442,17 +9368,11 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>4</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9481,17 +9401,11 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>4</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9520,17 +9434,11 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>4</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9559,17 +9467,11 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>4</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9598,17 +9500,11 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>4</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9637,17 +9533,11 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>4</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9676,17 +9566,11 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>4</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9715,17 +9599,11 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>4</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9754,17 +9632,11 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>4</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9793,17 +9665,11 @@
         <v>16246614.41971489</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>4</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9832,17 +9698,11 @@
         <v>16246614.41971489</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>4</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9874,14 +9734,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>4</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9913,14 +9767,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>4</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9952,14 +9800,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>4</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9991,14 +9833,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>4</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -10030,14 +9866,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>4</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10069,14 +9899,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>4</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10108,14 +9932,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>4</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10147,14 +9965,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>4</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10186,14 +9998,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>4</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10225,14 +10031,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>4</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10264,14 +10064,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>4</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10303,14 +10097,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>4</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10342,14 +10130,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>4</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10381,14 +10163,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>4</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10420,14 +10196,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>4</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10459,14 +10229,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>4</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10498,14 +10262,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>4</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10537,14 +10295,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>4</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10576,14 +10328,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>4</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10615,14 +10361,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>4</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10654,14 +10394,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>4</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10693,14 +10427,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>4</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10732,14 +10460,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>4</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10771,14 +10493,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>4</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10810,14 +10526,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>4</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10849,14 +10559,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>4</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10888,14 +10592,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>4</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10927,14 +10625,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>4</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10966,14 +10658,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>4</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -11005,14 +10691,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>4</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11044,14 +10724,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>4</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11083,14 +10757,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>4</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11122,14 +10790,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>4</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11161,14 +10823,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>4</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11200,14 +10856,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>4</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11239,14 +10889,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>4</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11278,14 +10922,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>4</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11317,14 +10955,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>4</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11356,14 +10988,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>4</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11395,14 +11021,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>4</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11434,14 +11054,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>4</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11473,14 +11087,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>4</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11512,14 +11120,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>4</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11551,14 +11153,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>4</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11590,14 +11186,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>4</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11629,14 +11219,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>4</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11665,17 +11249,11 @@
         <v>16717849.59999138</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>4</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11704,17 +11282,11 @@
         <v>16717849.59999138</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>4</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11746,14 +11318,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>4</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11785,14 +11351,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>4</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11821,17 +11381,11 @@
         <v>16944546.39169138</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>4</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11860,17 +11414,11 @@
         <v>16944546.39169138</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>4</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11899,17 +11447,11 @@
         <v>17114257.03479138</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>4</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11938,17 +11480,11 @@
         <v>17114257.03479138</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>4</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11977,17 +11513,11 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>4</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -12016,17 +11546,11 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>4</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12055,17 +11579,11 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>4</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12094,17 +11612,11 @@
         <v>17119771.05149138</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>4</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12133,17 +11645,11 @@
         <v>17110080.50949138</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>4</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12172,17 +11678,11 @@
         <v>17110080.50949138</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>4</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12211,17 +11711,11 @@
         <v>16982691.56409138</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>4</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12250,17 +11744,11 @@
         <v>17023686.06229138</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>4</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12292,14 +11780,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>4</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12331,14 +11813,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>4</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12367,17 +11843,11 @@
         <v>16884006.03899138</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>4</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12406,17 +11876,11 @@
         <v>16884026.03899138</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>4</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12445,17 +11909,11 @@
         <v>16884026.03899138</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>4</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12484,17 +11942,11 @@
         <v>16884036.03899138</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>4</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12523,17 +11975,11 @@
         <v>16965524.50119138</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>4</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12562,17 +12008,11 @@
         <v>16965524.50119138</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>4</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12601,17 +12041,11 @@
         <v>16782732.27349138</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>4</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12643,14 +12077,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>4</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12682,14 +12110,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>4</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12721,14 +12143,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>4</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12760,14 +12176,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>4</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12799,14 +12209,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>4</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12838,14 +12242,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>4</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12877,14 +12275,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>4</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12916,14 +12308,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>4</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12955,14 +12341,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>4</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12994,14 +12374,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>4</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -13033,14 +12407,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>4</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13072,14 +12440,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>4</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13111,14 +12473,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>4</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13150,14 +12506,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>4</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13189,14 +12539,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>4</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13228,14 +12572,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>4</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13267,14 +12605,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>4</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13306,14 +12638,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>4</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13345,14 +12671,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>4</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13384,14 +12704,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>4</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13423,14 +12737,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>4</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13462,14 +12770,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>4</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13501,14 +12803,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>4</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13540,14 +12836,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>4</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13579,14 +12869,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>4</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13618,14 +12902,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>4</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13657,14 +12935,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>4</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13696,14 +12968,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>4</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13735,14 +13001,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>4</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13774,14 +13034,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>4</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13813,14 +13067,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>4</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13852,14 +13100,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>4</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13891,14 +13133,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>4</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13930,14 +13166,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>4</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13969,14 +13199,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>4</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -14008,14 +13232,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>4</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -14047,14 +13265,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>4</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14086,14 +13298,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>4</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14125,14 +13331,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>4</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14164,14 +13364,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>4</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14203,14 +13397,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>4</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14242,14 +13430,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>4</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14281,14 +13463,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>4</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14320,14 +13496,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>4</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14359,14 +13529,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>4</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14398,14 +13562,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>4</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14437,14 +13595,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>4</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14476,14 +13628,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>4</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14515,14 +13661,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>4</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14554,14 +13694,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>4</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14593,14 +13727,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>4</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14632,14 +13760,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>4</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14671,14 +13793,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>4</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14710,14 +13826,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>4</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14749,14 +13859,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>4</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14788,14 +13892,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>4</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14827,14 +13925,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>4</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14866,14 +13958,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>4</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14905,14 +13991,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>4</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14944,14 +14024,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>4</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14983,14 +14057,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>4</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -15022,14 +14090,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>4</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -15061,14 +14123,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>4</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15100,14 +14156,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>4</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15139,14 +14189,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>4</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15178,14 +14222,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>4</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15217,14 +14255,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>4</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15256,14 +14288,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>4</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15295,14 +14321,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>4</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15334,14 +14354,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>4</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15373,14 +14387,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>4</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15412,14 +14420,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>4</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15451,14 +14453,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>4</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15490,14 +14486,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>4</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15529,14 +14519,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>4</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15568,14 +14552,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>4</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15607,14 +14585,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>4</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15646,14 +14618,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>4</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15685,14 +14651,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>4</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15724,14 +14684,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>4</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15763,14 +14717,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>4</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15802,14 +14750,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>4</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15841,14 +14783,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>4</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15880,14 +14816,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>4</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15919,14 +14849,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>4</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15958,14 +14882,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>4</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15997,14 +14915,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>4</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -16036,14 +14948,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>4</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16075,14 +14981,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>4</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16114,14 +15014,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>4</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16153,14 +15047,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>4</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16192,14 +15080,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>4</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16231,14 +15113,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>4</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16270,14 +15146,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>4</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16309,14 +15179,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>4</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16348,14 +15212,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>4</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16387,14 +15245,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>4</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16426,14 +15278,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>4</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16465,14 +15311,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>4</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16504,14 +15344,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>4</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16543,14 +15377,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>4</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16582,14 +15410,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>4</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16621,14 +15443,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>4</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16660,14 +15476,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>4</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16699,14 +15509,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>4</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16738,14 +15542,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>4</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16777,14 +15575,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>4</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16816,14 +15608,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>4</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16855,14 +15641,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>4</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16894,14 +15674,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>4</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16933,14 +15707,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>4</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16972,14 +15740,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>4</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -17011,14 +15773,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>4</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -17050,14 +15806,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>4</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -17089,14 +15839,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>4</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17128,14 +15872,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>4</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17167,14 +15905,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>4</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17206,14 +15938,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>4</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17245,14 +15971,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>4</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17284,14 +16004,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>4</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17323,14 +16037,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>4</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17362,14 +16070,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>4</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17401,14 +16103,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>4</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17440,14 +16136,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>4</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17479,14 +16169,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>4</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17518,14 +16202,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>4</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17557,14 +16235,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>4</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17596,14 +16268,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>4</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17635,14 +16301,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>4</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17674,14 +16334,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>4</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17713,14 +16367,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>4</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17752,14 +16400,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>4</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17791,14 +16433,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>4</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17830,14 +16466,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>4</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17869,14 +16499,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>4</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17908,14 +16532,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>4</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17947,14 +16565,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>4</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17986,14 +16598,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>4</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -18025,14 +16631,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>4</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -18064,14 +16664,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>4</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18103,14 +16697,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>4</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18142,14 +16730,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>4</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18181,14 +16763,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>4</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18220,14 +16796,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>4</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18259,14 +16829,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>4</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18298,14 +16862,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>4</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18337,14 +16895,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>4</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18376,14 +16928,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>4</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18415,14 +16961,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>4</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18454,14 +16994,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>4</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18493,14 +17027,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>4</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18532,14 +17060,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>4</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18571,14 +17093,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>4</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18610,14 +17126,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>4</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18649,14 +17159,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>4</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18688,14 +17192,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>4</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18727,14 +17225,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>4</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18766,14 +17258,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>4</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18805,14 +17291,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>4</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18844,14 +17324,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>4</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18883,14 +17357,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>4</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18922,14 +17390,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>4</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18961,14 +17423,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>4</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -19000,14 +17456,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>4</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -19039,14 +17489,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>4</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -19078,14 +17522,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>4</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19117,14 +17555,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>4</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19156,14 +17588,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>4</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19195,14 +17621,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>4</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19234,14 +17654,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>4</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19273,14 +17687,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>4</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19312,14 +17720,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>4</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19351,14 +17753,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>4</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19390,14 +17786,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>4</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19429,14 +17819,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>4</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19468,14 +17852,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>4</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19507,14 +17885,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>4</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19546,14 +17918,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>4</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19585,14 +17951,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>4</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19624,14 +17984,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>4</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19663,14 +18017,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>4</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19702,14 +18050,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>4</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19741,14 +18083,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>4</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19780,14 +18116,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>4</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19819,14 +18149,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>4</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19858,14 +18182,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>4</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19897,14 +18215,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>4</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19936,14 +18248,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>4</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19975,14 +18281,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>4</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -20014,14 +18314,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>4</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -20053,14 +18347,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>4</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -20092,14 +18380,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>4</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -20131,14 +18413,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>4</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20170,14 +18446,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>4</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20209,14 +18479,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>4</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20248,14 +18512,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>4</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20287,14 +18545,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>4</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20326,14 +18578,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>4</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20365,14 +18611,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>4</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20404,14 +18644,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>4</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20443,14 +18677,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>4</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20482,14 +18710,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>4</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20521,14 +18743,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>4</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20560,14 +18776,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>4</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20599,14 +18809,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>4</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20638,14 +18842,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>4</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20677,14 +18875,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>4</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20716,14 +18908,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>4</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20755,14 +18941,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>4</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20794,14 +18974,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>4</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20833,14 +19007,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>4</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20872,14 +19040,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>4</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20911,14 +19073,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>4</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20950,14 +19106,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>4</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20989,14 +19139,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>4</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -21028,14 +19172,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>4</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -21067,14 +19205,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>4</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -21106,14 +19238,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>4</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -21145,14 +19271,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>4</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21184,14 +19304,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>4</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21223,14 +19337,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>4</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21262,14 +19370,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>4</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21301,14 +19403,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>4</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21340,14 +19436,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>4</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21379,14 +19469,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>4</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21418,14 +19502,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>4</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21457,14 +19535,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>4</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21496,14 +19568,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>4</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21535,14 +19601,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>4</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21574,14 +19634,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>4</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21613,14 +19667,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>4</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21652,14 +19700,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>4</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21691,14 +19733,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>4</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21730,14 +19766,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>4</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21769,14 +19799,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>4</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21808,14 +19832,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>4</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21847,14 +19865,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>4</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21886,14 +19898,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>4</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21925,14 +19931,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>4</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21964,14 +19964,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>4</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -22003,14 +19997,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>4</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -22042,14 +20030,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>4</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -22081,14 +20063,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>4</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -22120,14 +20096,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>4</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -22159,14 +20129,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>4</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -22198,14 +20162,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>4</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -22237,14 +20195,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>4</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22276,14 +20228,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>4</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22315,14 +20261,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>4</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22354,14 +20294,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>4</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22393,14 +20327,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>4</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22432,14 +20360,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>4</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22471,14 +20393,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>4</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22510,14 +20426,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>4</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22549,14 +20459,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>4</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22588,14 +20492,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>4</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22627,14 +20525,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>4</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22666,14 +20558,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>4</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22705,14 +20591,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>4</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22744,14 +20624,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>4</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22783,14 +20657,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>4</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22822,14 +20690,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>4</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22861,14 +20723,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>4</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22900,14 +20756,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>4</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22939,14 +20789,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>4</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22978,14 +20822,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>4</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -23017,14 +20855,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>4</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23056,14 +20888,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>4</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23095,14 +20921,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>4</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23134,14 +20954,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>4</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23173,14 +20987,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>4</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23212,14 +21020,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>4</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23251,14 +21053,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>4</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23290,14 +21086,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>4</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23329,14 +21119,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>4</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23368,14 +21152,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>4</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23407,14 +21185,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>4</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23446,14 +21218,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>4</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23485,14 +21251,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>4</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23524,14 +21284,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>4</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23563,14 +21317,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>4</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23602,14 +21350,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>4</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23641,14 +21383,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>4</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23680,14 +21416,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>4</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23719,14 +21449,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>4</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23758,14 +21482,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>4</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23797,14 +21515,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>4</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23836,14 +21548,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>4</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23875,14 +21581,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>4</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -23914,14 +21614,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>4</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23953,14 +21647,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>4</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -23992,14 +21680,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>4</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -24031,14 +21713,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>4</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -24070,14 +21746,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>4</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -24109,14 +21779,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>4</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24148,14 +21812,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>4</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24187,14 +21845,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>4</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24226,14 +21878,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>4</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24265,14 +21911,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>4</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24304,14 +21944,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>4</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24343,14 +21977,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>4</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24382,14 +22010,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>4</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24421,14 +22043,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>4</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24460,14 +22076,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>4</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24499,14 +22109,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>4</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24538,14 +22142,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>4</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24577,14 +22175,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>4</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24616,14 +22208,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>4</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24655,14 +22241,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>4</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24691,19 +22271,13 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>4</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="M618" t="inlineStr"/>
     </row>
@@ -24730,7 +22304,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -24763,7 +22337,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -24796,7 +22370,7 @@
         <v>17237769.69749139</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -24829,7 +22403,7 @@
         <v>17237769.69749139</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -24862,7 +22436,7 @@
         <v>17219705.08793718</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24895,7 +22469,7 @@
         <v>17219705.08793718</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24928,7 +22502,7 @@
         <v>17494398.14503718</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24961,7 +22535,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24994,7 +22568,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -25027,7 +22601,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -25060,7 +22634,7 @@
         <v>17270231.83163718</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -25093,7 +22667,7 @@
         <v>17101336.51273718</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -25126,7 +22700,7 @@
         <v>17101336.51273718</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -25159,7 +22733,7 @@
         <v>17260176.76413718</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -25192,7 +22766,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -25225,7 +22799,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -25258,7 +22832,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -25291,7 +22865,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -25324,7 +22898,7 @@
         <v>16847088.21033718</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -25357,7 +22931,7 @@
         <v>16753496.17793718</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -25390,7 +22964,7 @@
         <v>15465636.67013718</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -25423,7 +22997,7 @@
         <v>15465646.67013718</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -25456,7 +23030,7 @@
         <v>15465646.67013718</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -25489,7 +23063,7 @@
         <v>15465646.67013718</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -25522,7 +23096,7 @@
         <v>15197801.02123718</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -25555,7 +23129,7 @@
         <v>15246689.41163718</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -25588,7 +23162,7 @@
         <v>15050529.54003718</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -25621,7 +23195,7 @@
         <v>15050529.54003718</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25654,7 +23228,7 @@
         <v>14815198.85413717</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25687,7 +23261,7 @@
         <v>14815208.85413717</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25720,7 +23294,7 @@
         <v>14623730.23993718</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -25753,7 +23327,7 @@
         <v>14895016.05563718</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25852,7 +23426,7 @@
         <v>14105491.19733717</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -30307,7 +27881,7 @@
         <v>11801173.58259289</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -30439,7 +28013,7 @@
         <v>11576936.93209289</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -30450,6 +28024,6 @@
       <c r="M792" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest PLY.xlsx
+++ b/BackTest/2019-10-28 BackTest PLY.xlsx
@@ -685,9 +685,11 @@
         <v>-496113.4645000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
@@ -724,9 +726,11 @@
         <v>-496113.4645000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
@@ -927,9 +931,11 @@
         <v>77119.24629999977</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J14" t="n">
         <v>4</v>
       </c>
@@ -966,9 +972,11 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J15" t="n">
         <v>4</v>
       </c>
@@ -1005,9 +1013,11 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J16" t="n">
         <v>4</v>
       </c>
@@ -1044,9 +1054,11 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J17" t="n">
         <v>4</v>
       </c>
@@ -1083,9 +1095,11 @@
         <v>-424157.3668000003</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J18" t="n">
         <v>4</v>
       </c>
@@ -1122,9 +1136,11 @@
         <v>-424157.3668000003</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
       <c r="J19" t="n">
         <v>4</v>
       </c>
@@ -1161,9 +1177,11 @@
         <v>-50019.73620000028</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
       <c r="J20" t="n">
         <v>4</v>
       </c>
@@ -1200,9 +1218,11 @@
         <v>-50019.73620000028</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J21" t="n">
         <v>4</v>
       </c>
@@ -1239,9 +1259,11 @@
         <v>-22816.73620000028</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J22" t="n">
         <v>4</v>
       </c>
@@ -1278,9 +1300,11 @@
         <v>-89112.23460000027</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J23" t="n">
         <v>4</v>
       </c>
@@ -1317,9 +1341,11 @@
         <v>-89102.23460000027</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
       <c r="J24" t="n">
         <v>4</v>
       </c>
@@ -1356,9 +1382,11 @@
         <v>-89102.23460000027</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J25" t="n">
         <v>4</v>
       </c>
@@ -1395,9 +1423,11 @@
         <v>197942.6509999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
@@ -2643,9 +2673,11 @@
         <v>-1816331.403685112</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
       <c r="J58" t="n">
         <v>4</v>
       </c>
@@ -2682,9 +2714,11 @@
         <v>-1816331.403685112</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
       <c r="J59" t="n">
         <v>4</v>
       </c>
@@ -2721,9 +2755,11 @@
         <v>-1832377.573785112</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
       <c r="J60" t="n">
         <v>4</v>
       </c>
@@ -2760,9 +2796,11 @@
         <v>-1507233.427585111</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.98</v>
+      </c>
       <c r="J61" t="n">
         <v>4</v>
       </c>
@@ -2963,9 +3001,11 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J66" t="n">
         <v>4</v>
       </c>
@@ -3002,9 +3042,11 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J67" t="n">
         <v>4</v>
       </c>
@@ -3041,9 +3083,11 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J68" t="n">
         <v>4</v>
       </c>
@@ -3080,9 +3124,11 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J69" t="n">
         <v>4</v>
       </c>
@@ -3119,9 +3165,11 @@
         <v>-1440956.535585111</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J70" t="n">
         <v>4</v>
       </c>
@@ -3523,9 +3571,11 @@
         <v>-1766835.400785112</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J80" t="n">
         <v>4</v>
       </c>
@@ -3726,9 +3776,11 @@
         <v>-1877230.834785112</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.03</v>
+      </c>
       <c r="J85" t="n">
         <v>4</v>
       </c>
@@ -3804,9 +3856,11 @@
         <v>-2253169.834785112</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J87" t="n">
         <v>4</v>
       </c>
@@ -4662,9 +4716,11 @@
         <v>-2741514.961785112</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J109" t="n">
         <v>4</v>
       </c>
@@ -4701,9 +4757,11 @@
         <v>-2771849.189185112</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J110" t="n">
         <v>4</v>
       </c>
@@ -4740,9 +4798,11 @@
         <v>-2771839.189185112</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4</v>
+      </c>
       <c r="J111" t="n">
         <v>4</v>
       </c>
@@ -4857,9 +4917,11 @@
         <v>-2828319.189185112</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J114" t="n">
         <v>4</v>
       </c>
@@ -4896,9 +4958,11 @@
         <v>-2828309.189185112</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J115" t="n">
         <v>4</v>
       </c>
@@ -5598,9 +5662,11 @@
         <v>-3466692.662185112</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J133" t="n">
         <v>4</v>
       </c>
@@ -5637,9 +5703,11 @@
         <v>-3466692.662185112</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J134" t="n">
         <v>4</v>
       </c>
@@ -5676,9 +5744,11 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J135" t="n">
         <v>4</v>
       </c>
@@ -5754,11 +5824,9 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
         <v>4</v>
       </c>
@@ -5795,11 +5863,9 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
         <v>4</v>
       </c>
@@ -6322,9 +6388,11 @@
         <v>-3332172.827985113</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J151" t="n">
         <v>4</v>
       </c>
@@ -6400,11 +6468,9 @@
         <v>-3535188.895685113</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>4</v>
       </c>
@@ -6482,9 +6548,11 @@
         <v>-3700313.959685112</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J155" t="n">
         <v>4</v>
       </c>
@@ -6644,9 +6712,11 @@
         <v>-3701554.959685112</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4.01</v>
+      </c>
       <c r="J159" t="n">
         <v>4</v>
       </c>
@@ -6888,11 +6958,9 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
         <v>4</v>
       </c>
@@ -6929,11 +6997,9 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>4</v>
       </c>
@@ -7011,11 +7077,9 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>4</v>
       </c>
@@ -7052,11 +7116,9 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>4</v>
       </c>
@@ -7134,11 +7196,9 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>4</v>
       </c>
@@ -7175,11 +7235,9 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>4</v>
       </c>
@@ -7216,11 +7274,9 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>4</v>
       </c>
@@ -7257,11 +7313,9 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>4</v>
       </c>
@@ -7298,11 +7352,9 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>4</v>
       </c>
@@ -7339,11 +7391,9 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>4</v>
       </c>
@@ -7462,11 +7512,9 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>4.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>4</v>
       </c>
@@ -7544,11 +7592,9 @@
         <v>-3857396.322885112</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>4</v>
       </c>
@@ -8077,11 +8123,9 @@
         <v>-3797298.645285112</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>4</v>
       </c>
@@ -8241,11 +8285,9 @@
         <v>-2680661.915685112</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
         <v>4</v>
       </c>
@@ -9296,7 +9338,7 @@
         <v>15187485.91091489</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
@@ -9304,11 +9346,11 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L225" t="n">
-        <v>1.0075</v>
+        <v>1</v>
       </c>
       <c r="M225" t="inlineStr"/>
     </row>
@@ -9335,11 +9377,17 @@
         <v>55737505.91091489</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>4</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9368,11 +9416,17 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>4</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9401,11 +9455,17 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>4</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9434,11 +9494,17 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>4</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9467,11 +9533,17 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>4</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9500,11 +9572,17 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>4</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9533,11 +9611,17 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>4</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9566,11 +9650,17 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>4</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9599,11 +9689,17 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>4</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9632,11 +9728,17 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>4</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9665,11 +9767,17 @@
         <v>16246614.41971489</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>4</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9698,11 +9806,17 @@
         <v>16246614.41971489</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>4</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9734,8 +9848,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>4</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9767,8 +9887,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>4</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9800,8 +9926,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>4</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9833,8 +9965,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>4</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9866,8 +10004,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>4</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9899,8 +10043,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>4</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9932,8 +10082,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>4</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9965,8 +10121,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>4</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9998,8 +10160,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>4</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10031,8 +10199,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>4</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10064,8 +10238,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>4</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10097,8 +10277,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>4</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10130,8 +10316,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>4</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10163,8 +10355,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>4</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10196,8 +10394,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>4</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10229,8 +10433,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>4</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10262,8 +10472,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>4</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10295,8 +10511,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>4</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10328,8 +10550,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>4</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10361,8 +10589,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>4</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10394,8 +10628,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>4</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10427,8 +10667,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>4</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10460,8 +10706,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>4</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10493,8 +10745,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>4</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10526,8 +10784,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>4</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10559,8 +10823,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>4</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10592,8 +10862,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>4</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10625,8 +10901,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>4</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10658,8 +10940,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>4</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10691,8 +10979,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>4</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10724,8 +11018,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>4</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10757,8 +11057,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>4</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10790,8 +11096,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>4</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10823,8 +11135,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>4</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10856,8 +11174,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>4</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10889,8 +11213,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>4</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10922,8 +11252,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>4</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10955,8 +11291,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>4</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10988,8 +11330,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>4</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11021,8 +11369,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>4</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11054,8 +11408,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>4</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11087,8 +11447,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>4</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11120,8 +11486,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>4</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11153,8 +11525,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>4</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11186,8 +11564,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>4</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11219,8 +11603,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>4</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11249,11 +11639,17 @@
         <v>16717849.59999138</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>4</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11282,11 +11678,17 @@
         <v>16717849.59999138</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>4</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11318,8 +11720,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>4</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11351,8 +11759,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>4</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11381,11 +11795,17 @@
         <v>16944546.39169138</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>4</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11414,11 +11834,17 @@
         <v>16944546.39169138</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>4</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11447,11 +11873,17 @@
         <v>17114257.03479138</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>4</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11480,11 +11912,17 @@
         <v>17114257.03479138</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>4</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11513,11 +11951,17 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>4</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11546,11 +11990,17 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>4</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11579,11 +12029,17 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>4</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11612,11 +12068,17 @@
         <v>17119771.05149138</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>4</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11645,11 +12107,17 @@
         <v>17110080.50949138</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>4</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11678,11 +12146,17 @@
         <v>17110080.50949138</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>4</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11711,11 +12185,17 @@
         <v>16982691.56409138</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>4</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11744,11 +12224,17 @@
         <v>17023686.06229138</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>4</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11780,8 +12266,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>4</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11813,8 +12305,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>4</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11843,11 +12341,17 @@
         <v>16884006.03899138</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>4</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11876,11 +12380,17 @@
         <v>16884026.03899138</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>4</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11909,11 +12419,17 @@
         <v>16884026.03899138</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>4</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11942,11 +12458,17 @@
         <v>16884036.03899138</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>4</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11975,11 +12497,17 @@
         <v>16965524.50119138</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>4</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12008,11 +12536,17 @@
         <v>16965524.50119138</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>4</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12041,11 +12575,17 @@
         <v>16782732.27349138</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>4</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12077,8 +12617,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>4</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12110,8 +12656,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>4</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12143,8 +12695,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>4</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12176,8 +12734,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>4</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12209,8 +12773,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>4</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12242,8 +12812,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>4</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12275,8 +12851,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>4</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12308,8 +12890,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>4</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12341,8 +12929,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>4</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12374,8 +12968,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>4</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12407,8 +13007,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>4</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12440,8 +13046,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>4</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12473,8 +13085,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>4</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12506,8 +13124,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>4</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12539,8 +13163,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>4</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12572,8 +13202,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>4</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12605,8 +13241,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>4</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12638,8 +13280,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>4</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12671,8 +13319,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>4</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12704,8 +13358,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>4</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12737,8 +13397,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>4</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12770,8 +13436,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>4</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12803,8 +13475,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>4</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12836,8 +13514,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>4</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12869,8 +13553,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>4</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12902,8 +13592,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>4</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12935,8 +13631,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>4</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12968,8 +13670,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>4</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13001,8 +13709,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>4</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13034,8 +13748,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>4</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13067,8 +13787,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>4</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13100,8 +13826,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>4</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13133,8 +13865,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>4</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13166,8 +13904,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>4</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13199,8 +13943,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>4</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13232,8 +13982,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>4</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13265,8 +14021,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>4</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13298,8 +14060,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>4</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13331,8 +14099,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>4</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13364,8 +14138,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>4</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13397,8 +14177,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>4</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13430,8 +14216,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>4</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13463,8 +14255,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>4</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13496,8 +14294,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>4</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13529,8 +14333,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>4</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13562,8 +14372,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>4</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13595,8 +14411,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>4</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13628,8 +14450,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>4</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13661,8 +14489,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>4</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13694,8 +14528,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>4</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13727,8 +14567,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>4</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13760,8 +14606,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>4</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13793,8 +14645,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>4</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13826,8 +14684,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>4</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13859,8 +14723,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>4</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13892,8 +14762,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>4</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13925,8 +14801,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>4</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13958,8 +14840,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>4</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13991,8 +14879,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>4</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14024,8 +14918,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>4</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14057,8 +14957,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>4</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14090,8 +14996,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>4</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14123,8 +15035,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>4</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14156,8 +15074,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>4</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14189,8 +15113,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>4</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14222,8 +15152,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>4</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14255,8 +15191,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>4</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14288,8 +15230,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>4</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14321,8 +15269,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>4</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14354,8 +15308,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>4</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14387,8 +15347,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>4</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14420,8 +15386,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>4</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14453,8 +15425,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>4</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14486,8 +15464,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>4</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14519,8 +15503,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>4</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14552,8 +15542,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>4</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14585,8 +15581,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>4</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14618,8 +15620,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>4</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14651,8 +15659,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>4</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14684,8 +15698,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>4</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14717,8 +15737,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>4</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14750,8 +15776,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>4</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14783,8 +15815,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>4</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14816,8 +15854,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>4</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14849,8 +15893,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>4</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14882,8 +15932,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>4</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14915,8 +15971,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>4</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14948,8 +16010,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>4</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14981,8 +16049,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>4</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15014,8 +16088,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>4</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15047,8 +16127,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>4</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15080,8 +16166,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>4</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15113,8 +16205,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>4</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15146,8 +16244,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>4</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15179,8 +16283,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>4</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15212,8 +16322,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>4</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15245,8 +16361,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>4</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15278,8 +16400,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>4</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15311,8 +16439,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>4</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15344,8 +16478,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>4</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15377,8 +16517,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>4</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15410,8 +16556,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>4</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15443,8 +16595,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>4</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15476,8 +16634,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>4</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15509,8 +16673,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>4</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15542,8 +16712,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>4</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15575,8 +16751,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>4</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15608,8 +16790,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>4</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15641,8 +16829,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>4</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15674,8 +16868,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>4</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15707,8 +16907,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>4</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15740,8 +16946,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>4</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15773,8 +16985,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>4</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15806,8 +17024,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>4</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15839,8 +17063,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>4</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15872,8 +17102,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>4</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15905,8 +17141,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>4</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15938,8 +17180,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>4</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15971,8 +17219,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>4</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16004,8 +17258,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>4</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16037,8 +17297,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>4</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16070,8 +17336,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>4</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16103,8 +17375,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>4</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16136,8 +17414,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>4</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16169,8 +17453,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>4</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16202,8 +17492,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>4</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16235,8 +17531,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>4</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16268,8 +17570,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>4</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16301,8 +17609,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>4</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16334,8 +17648,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>4</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16367,8 +17687,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>4</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16400,8 +17726,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>4</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16433,8 +17765,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>4</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16466,8 +17804,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>4</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16499,8 +17843,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>4</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16532,8 +17882,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>4</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16565,8 +17921,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>4</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16598,8 +17960,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>4</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16631,8 +17999,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>4</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16664,8 +18038,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>4</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16697,8 +18077,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>4</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16730,8 +18116,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>4</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16763,8 +18155,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>4</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16796,8 +18194,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>4</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16829,8 +18233,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>4</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16862,8 +18272,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>4</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16895,8 +18311,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>4</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16928,8 +18350,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>4</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16961,8 +18389,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>4</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16994,8 +18428,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>4</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17027,8 +18467,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>4</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17060,8 +18506,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>4</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17093,8 +18545,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>4</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17126,8 +18584,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>4</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17159,8 +18623,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>4</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17192,8 +18662,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>4</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17225,8 +18701,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>4</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17258,8 +18740,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>4</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17291,8 +18779,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>4</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17324,8 +18818,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>4</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17357,8 +18857,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>4</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17390,8 +18896,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>4</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17423,8 +18935,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>4</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17456,8 +18974,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>4</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17489,8 +19013,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>4</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17522,8 +19052,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>4</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17555,8 +19091,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>4</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17588,8 +19130,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>4</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17621,8 +19169,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>4</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17654,8 +19208,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>4</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17687,8 +19247,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>4</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17720,8 +19286,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>4</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17753,8 +19325,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>4</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17786,8 +19364,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>4</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17819,8 +19403,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>4</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17852,8 +19442,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>4</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17885,8 +19481,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>4</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17918,8 +19520,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>4</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17951,8 +19559,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>4</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17984,8 +19598,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>4</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18017,8 +19637,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>4</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18050,8 +19676,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>4</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18083,8 +19715,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>4</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18116,8 +19754,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>4</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18149,8 +19793,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>4</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18182,8 +19832,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>4</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18215,8 +19871,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>4</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18248,8 +19910,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>4</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18281,8 +19949,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>4</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18314,8 +19988,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>4</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18347,8 +20027,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>4</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18380,8 +20066,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>4</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18413,8 +20105,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>4</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18446,8 +20144,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>4</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18479,8 +20183,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>4</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18512,8 +20222,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>4</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18545,8 +20261,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>4</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18578,8 +20300,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>4</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18611,8 +20339,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>4</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18644,8 +20378,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>4</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18677,8 +20417,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>4</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18710,8 +20456,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>4</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18743,8 +20495,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>4</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18776,8 +20534,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>4</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18809,8 +20573,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>4</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18842,8 +20612,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>4</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18875,8 +20651,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>4</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18908,8 +20690,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>4</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18941,8 +20729,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>4</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18974,8 +20768,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>4</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19007,8 +20807,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>4</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19040,8 +20846,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>4</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19073,8 +20885,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>4</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19106,8 +20924,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>4</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19139,8 +20963,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>4</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19172,8 +21002,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>4</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19205,8 +21041,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>4</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19238,8 +21080,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>4</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19271,8 +21119,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>4</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19304,8 +21158,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>4</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19337,8 +21197,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>4</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19370,8 +21236,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>4</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19403,8 +21275,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>4</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19436,8 +21314,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>4</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19469,8 +21353,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>4</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19502,8 +21392,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>4</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19535,8 +21431,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>4</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19568,8 +21470,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>4</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19601,8 +21509,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>4</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19634,8 +21548,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>4</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19667,8 +21587,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>4</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19700,8 +21626,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>4</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19733,8 +21665,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>4</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19766,8 +21704,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>4</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19799,8 +21743,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>4</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19832,8 +21782,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>4</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19865,8 +21821,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>4</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19898,8 +21860,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>4</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19931,8 +21899,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>4</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19964,8 +21938,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>4</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19997,8 +21977,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>4</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20030,8 +22016,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>4</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20063,8 +22055,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>4</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20096,8 +22094,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>4</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20129,8 +22133,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>4</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20162,8 +22172,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>4</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20195,8 +22211,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>4</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20228,8 +22250,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>4</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20261,8 +22289,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>4</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20294,8 +22328,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>4</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20327,8 +22367,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>4</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20360,8 +22406,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>4</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20393,8 +22445,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>4</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20426,8 +22484,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>4</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20459,8 +22523,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>4</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20492,8 +22562,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>4</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20525,8 +22601,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>4</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20558,8 +22640,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>4</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20591,8 +22679,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>4</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20624,8 +22718,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>4</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20657,8 +22757,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>4</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20690,8 +22796,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>4</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20723,8 +22835,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>4</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20756,8 +22874,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>4</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20789,8 +22913,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>4</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20822,8 +22952,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>4</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20855,8 +22991,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>4</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20888,8 +23030,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>4</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20921,8 +23069,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>4</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20954,8 +23108,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>4</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20987,8 +23147,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>4</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21020,8 +23186,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>4</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21053,8 +23225,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>4</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21086,8 +23264,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>4</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21119,8 +23303,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>4</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21152,8 +23342,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>4</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21185,8 +23381,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>4</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21218,8 +23420,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>4</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21251,8 +23459,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>4</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21284,8 +23498,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>4</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21317,8 +23537,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>4</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21350,8 +23576,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>4</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21383,8 +23615,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>4</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21416,8 +23654,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>4</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21449,8 +23693,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>4</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21482,8 +23732,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>4</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21515,8 +23771,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>4</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21548,8 +23810,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>4</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21581,8 +23849,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>4</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21614,8 +23888,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>4</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21647,8 +23927,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>4</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21680,8 +23966,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>4</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21713,8 +24005,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>4</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21746,8 +24044,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>4</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21779,8 +24083,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>4</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21809,13 +24119,19 @@
         <v>17535631.75409139</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>4</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L604" t="n">
-        <v>1</v>
+        <v>1.035</v>
       </c>
       <c r="M604" t="inlineStr"/>
     </row>
@@ -21842,7 +24158,7 @@
         <v>17535631.75409139</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21875,7 +24191,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21908,7 +24224,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21941,7 +24257,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21974,7 +24290,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22007,7 +24323,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22040,7 +24356,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22073,7 +24389,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22106,7 +24422,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22139,7 +24455,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22172,7 +24488,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22205,7 +24521,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22238,7 +24554,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22271,7 +24587,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22304,7 +24620,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22337,7 +24653,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22370,7 +24686,7 @@
         <v>17237769.69749139</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22403,7 +24719,7 @@
         <v>17237769.69749139</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22436,7 +24752,7 @@
         <v>17219705.08793718</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22469,7 +24785,7 @@
         <v>17219705.08793718</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22502,7 +24818,7 @@
         <v>17494398.14503718</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22535,7 +24851,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22568,7 +24884,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22601,7 +24917,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22634,7 +24950,7 @@
         <v>17270231.83163718</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22667,7 +24983,7 @@
         <v>17101336.51273718</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22700,7 +25016,7 @@
         <v>17101336.51273718</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22733,7 +25049,7 @@
         <v>17260176.76413718</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22766,7 +25082,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22799,7 +25115,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22832,7 +25148,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22865,7 +25181,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22898,7 +25214,7 @@
         <v>16847088.21033718</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22931,7 +25247,7 @@
         <v>16753496.17793718</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22964,7 +25280,7 @@
         <v>15465636.67013718</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -27056,7 +29372,7 @@
         <v>12916672.16256638</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27089,7 +29405,7 @@
         <v>12916672.16256638</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27122,7 +29438,7 @@
         <v>12916672.16256638</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27155,7 +29471,7 @@
         <v>13551690.51709289</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27188,7 +29504,7 @@
         <v>13551690.51709289</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27221,7 +29537,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27254,7 +29570,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27287,7 +29603,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27320,7 +29636,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27353,7 +29669,7 @@
         <v>12582593.22309289</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27452,7 +29768,7 @@
         <v>12673308.62839289</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27485,7 +29801,7 @@
         <v>12673308.62839289</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27881,7 +30197,7 @@
         <v>11801173.58259289</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
